--- a/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
@@ -451,519 +451,699 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>290.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>001736</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>圆信永丰优加生活股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>92.46</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.54</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7930</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3724</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>008245</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>圆信永丰致优混合A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>94.07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>008246</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>圆信永丰致优混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>94.07</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信价值优选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004959</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>圆信永丰优悦生活混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003126</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>长信易进混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>26.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003127</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信易进混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>26.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004934</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>圆信永丰消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004958</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>圆信永丰优享生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009606</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长信稳健精选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009607</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长信稳健精选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519960</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>长信利广灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519961</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长信利广灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519962</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长信利盈灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>26.54</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519963</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长信利盈灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>26.54</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001511</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>兴全新视野灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>69.45</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1024,15 +1214,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>37.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.81</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6874</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009606</t>
+          <t>004934</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长信稳健精选混合A</t>
+          <t>圆信永丰消费升级灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>29.38</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5980</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009607</t>
+          <t>004958</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信稳健精选混合C</t>
+          <t>圆信永丰优享生活灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29.38</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4062</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>519963</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>长信利盈灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>33.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519937</t>
+          <t>519961</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长信先锐混合A</t>
+          <t>长信利广灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008918</t>
+          <t>004607</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信先锐混合C</t>
+          <t>长信利尚一年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004934</t>
+          <t>004959</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>圆信永丰消费升级灵活配置混合</t>
+          <t>圆信永丰优悦生活混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>79.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004958</t>
+          <t>003126</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>圆信永丰优享生活灵活配置混合</t>
+          <t>长信易进混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159804</t>
+          <t>009606</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
+          <t>长信稳健精选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>97.97</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519961</t>
+          <t>003127</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长信利广灵活配置混合A</t>
+          <t>长信易进混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>519960</t>
+          <t>008245</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信利广灵活配置混合C</t>
+          <t>圆信永丰致优混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519963</t>
+          <t>519937</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长信利盈灵活配置混合A</t>
+          <t>长信先锐混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>33.16</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>519962</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长信利盈灵活配置混合C</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>33.16</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003126</t>
+          <t>159804</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长信易进混合A</t>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29.62</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003127</t>
+          <t>519960</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长信易进混合C</t>
+          <t>长信利广灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29.62</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008245</t>
+          <t>009607</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>圆信永丰致优混合A</t>
+          <t>长信稳健精选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1472,15 +1822,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>91.30</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1.91</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004607</t>
+          <t>519962</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>长信利尚一年定期开放混合</t>
+          <t>长信利盈灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>33.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004959</t>
+          <t>008918</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>圆信永丰优悦生活混合</t>
+          <t>长信先锐混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>79.70</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>221.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.6798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9870</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5478</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4157</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2924</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161834</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华鑫锐灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2740,4 +2741,1124 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163402</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全趋势投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>333.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7272</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>189.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.9712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0046</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6629</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5104</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4641</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4612</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4599</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004607</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信利尚一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3861,4 +3862,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3870,7 +3871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3881,17 +3882,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3901,14 +3922,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.77</v>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3917,14 +3960,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.06</v>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4900</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3933,14 +3998,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.45</v>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0724</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3949,13 +4036,1633 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8512</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4938</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4624</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4136</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>43</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5561,7 +5562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5572,17 +5573,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5592,14 +5613,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>43</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.15</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4115</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5608,14 +5651,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.77</v>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4710</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5624,14 +5689,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.06</v>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3154</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5640,14 +5727,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.45</v>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8981</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -5656,13 +5765,1573 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5483</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5186</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4929</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4247</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>41.59</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>28.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7214,7 +7215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7225,17 +7226,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7245,14 +7266,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.42</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0130</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7261,14 +7304,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.15</v>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2285</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7277,14 +7342,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.77</v>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2805</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7293,14 +7380,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.06</v>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9310</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -7309,14 +7418,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.45</v>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8228</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -7325,13 +7456,1703 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>111.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6794</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6057</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5353</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4764</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4747</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012029</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012030</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>11.29</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>15.11</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>12.42</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>10.15</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>22.77</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>12.06</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>3.45</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.29</v>
       </c>
     </row>
@@ -600,6 +617,2342 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7097</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3340</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2402</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012064</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰兴诺一年持有混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1965</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6531</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5491</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4655</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4393</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013108</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013107</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏先进制造龙头混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011903</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方领航优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011904</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方领航优选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>61.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2403,7 +4756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4055,7 +6408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,7 +8098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6865,7 +9218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7681,7 +10034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8459,7 +10812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300054-鼎龙股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D2" t="n">
-        <v>18.99</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>15.11</v>
+        <v>18.99</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>12.42</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>10.15</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>22.77</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>12.06</v>
+        <v>22.77</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>3.45</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,732 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>290.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5930</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7930</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3724</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信易进混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003127</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信易进混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1336,2834 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5859</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014639</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4467</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3836</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3580</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2865</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1505</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012064</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰兴诺一年持有混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0570</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8596</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004952</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全恒益债券A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>52.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6975</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5530</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3519</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2572</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014640</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴证全球合衡三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015627</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰弘阳股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014752</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004953</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴全恒益债券C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014753</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信稳健增长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012485</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信汇益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009606</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>31.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014850</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长信稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015097</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011105</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010808</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010809</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>达诚策略先锋混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.22</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015096</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东财数字经济优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519961</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009607</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>31.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>71.99</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014851</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信稳健成长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011106</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信稳健均衡6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006564</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>圆信永丰精选回报混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012486</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信汇益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519960</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信利广灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015628</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>圆信永丰弘阳股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2952,7 +6499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4756,7 +8303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6408,7 +9955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8098,7 +11645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9218,7 +12765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10034,7 +13581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10810,706 +14357,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001511</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴全新视野灵活配置定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>290.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>69.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.5930</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001736</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>圆信永丰优加生活股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>31.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7930</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004934</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5108</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519961</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信利广灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4010</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519963</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长信利盈灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>26.54</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3724</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004958</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>圆信永丰优享生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3600</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004959</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>圆信永丰优悦生活混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3025</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003126</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长信易进混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>26.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2187</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009606</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长信稳健精选混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2043</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003127</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长信易进混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>26.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1087</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008245</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>圆信永丰致优混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0946</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0889</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501002</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>长信价值优选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0776</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519960</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长信利广灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0630</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009607</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>长信稳健精选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0532</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008246</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>圆信永丰致优混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>519962</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长信利盈灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>26.54</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>